--- a/src/config/state_flows.xlsx
+++ b/src/config/state_flows.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Mobatek\MobaXterm Professional Edition\Slash\RemoteFiles\15010828_2_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Mobatek\MobaXterm Professional Edition\Slash\RemoteFiles\67328_2_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -146,39 +146,6 @@
     <t>prognosis_state</t>
   </si>
   <si>
-    <t>duration_latency</t>
-  </si>
-  <si>
-    <t>duration_presymptomatic</t>
-  </si>
-  <si>
-    <t>duration_non_severe</t>
-  </si>
-  <si>
-    <t>duration_onset_to_hospital</t>
-  </si>
-  <si>
-    <t>duration_severe</t>
-  </si>
-  <si>
-    <t>duration_home_death</t>
-  </si>
-  <si>
-    <t>duration_hospital_stay</t>
-  </si>
-  <si>
-    <t>duration_hospital_to_icu</t>
-  </si>
-  <si>
-    <t>duration_icu_stay</t>
-  </si>
-  <si>
-    <t>duration_icu_stay_death</t>
-  </si>
-  <si>
-    <t>duration_hospital_transfer</t>
-  </si>
-  <si>
     <t>next_duration</t>
   </si>
   <si>
@@ -198,6 +165,39 @@
   </si>
   <si>
     <t>Die outside of hospital (use metric 'deaths_home' if required)</t>
+  </si>
+  <si>
+    <t>latency</t>
+  </si>
+  <si>
+    <t>presymptomatic</t>
+  </si>
+  <si>
+    <t>infectious_mild</t>
+  </si>
+  <si>
+    <t>infectious_severe</t>
+  </si>
+  <si>
+    <t>onset_to_hospital</t>
+  </si>
+  <si>
+    <t>home_death</t>
+  </si>
+  <si>
+    <t>hospital_stay</t>
+  </si>
+  <si>
+    <t>hospital_to_icu</t>
+  </si>
+  <si>
+    <t>icu_stay</t>
+  </si>
+  <si>
+    <t>icu_stay_death</t>
+  </si>
+  <si>
+    <t>hospital_transfer</t>
   </si>
   <si>
     <t>deaths</t>
@@ -1116,15 +1116,15 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="15.625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="25.625" style="81" customWidth="1"/>
-    <col min="8" max="8" width="40.625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="20.625" style="81" customWidth="1"/>
+    <col min="8" max="8" width="51.25" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1145,10 +1145,10 @@
         <v>28</v>
       </c>
       <c r="F1" s="77" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G1" s="77" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H1" s="56" t="s">
         <v>17</v>
@@ -1171,7 +1171,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G2" s="78"/>
       <c r="H2" s="57" t="s">
@@ -1195,7 +1195,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="75" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G3" s="75"/>
       <c r="H3" s="58" t="s">
@@ -1219,7 +1219,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="75" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G4" s="75"/>
       <c r="H4" s="58"/>
@@ -1241,7 +1241,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="75" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G5" s="75"/>
       <c r="H5" s="58"/>
@@ -1263,7 +1263,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="75" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G6" s="75"/>
       <c r="H6" s="58"/>
@@ -1285,7 +1285,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="75" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G7" s="75"/>
       <c r="H7" s="58"/>
@@ -1307,7 +1307,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="75" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G8" s="75"/>
       <c r="H8" s="58"/>
@@ -1329,7 +1329,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="75" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G9" s="75"/>
       <c r="H9" s="58"/>
@@ -1351,7 +1351,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="74" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G10" s="74"/>
       <c r="H10" s="59"/>
@@ -1373,7 +1373,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="75" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G11" s="75"/>
       <c r="H11" s="58"/>
@@ -1395,7 +1395,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="75" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G12" s="75"/>
       <c r="H12" s="58"/>
@@ -1417,7 +1417,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="75" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G13" s="75"/>
       <c r="H13" s="58"/>
@@ -1439,7 +1439,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="75" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G14" s="75"/>
       <c r="H14" s="58" t="s">
@@ -1463,7 +1463,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="75" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G15" s="75"/>
       <c r="H15" s="58" t="s">
@@ -1487,7 +1487,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="75" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G16" s="75"/>
       <c r="H16" s="58"/>
@@ -1509,7 +1509,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="75" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G17" s="75"/>
       <c r="H17" s="58" t="s">
@@ -1533,7 +1533,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="74" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G18" s="74"/>
       <c r="H18" s="59" t="s">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="F19" s="75"/>
       <c r="G19" s="75" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H19" s="58" t="s">
         <v>21</v>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="F20" s="74"/>
       <c r="G20" s="74" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H20" s="60" t="s">
         <v>22</v>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="F21" s="75"/>
       <c r="G21" s="75" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H21" s="61" t="s">
         <v>34</v>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="F22" s="75"/>
       <c r="G22" s="75" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H22" s="61"/>
     </row>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="F23" s="75"/>
       <c r="G23" s="75" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H23" s="61"/>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="F24" s="75"/>
       <c r="G24" s="75" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H24" s="61"/>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="F25" s="75"/>
       <c r="G25" s="75" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H25" s="61"/>
     </row>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="F26" s="75"/>
       <c r="G26" s="75" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H26" s="61"/>
     </row>
@@ -1739,10 +1739,10 @@
         <v>14</v>
       </c>
       <c r="F27" s="79" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G27" s="79" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H27" s="62" t="s">
         <v>38</v>
@@ -1765,10 +1765,10 @@
         <v>14</v>
       </c>
       <c r="F28" s="75" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G28" s="75" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H28" s="58"/>
     </row>
@@ -1789,10 +1789,10 @@
         <v>14</v>
       </c>
       <c r="F29" s="75" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G29" s="75" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H29" s="58"/>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="F30" s="74"/>
       <c r="G30" s="74" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H30" s="59" t="s">
         <v>24</v>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="F31" s="75"/>
       <c r="G31" s="75" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H31" s="58" t="s">
         <v>23</v>
@@ -1861,10 +1861,10 @@
         <v>15</v>
       </c>
       <c r="F32" s="75" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G32" s="75" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H32" s="58"/>
     </row>
@@ -1885,10 +1885,10 @@
         <v>15</v>
       </c>
       <c r="F33" s="74" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G33" s="74" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H33" s="59"/>
     </row>
@@ -1909,7 +1909,7 @@
         <v>16</v>
       </c>
       <c r="F34" s="75" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G34" s="75"/>
       <c r="H34" s="58" t="s">
@@ -1937,7 +1937,7 @@
         <v>58</v>
       </c>
       <c r="H35" s="58" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="F36" s="75"/>
       <c r="G36" s="75" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H36" s="58" t="s">
         <v>24</v>
@@ -1985,7 +1985,7 @@
         <v>58</v>
       </c>
       <c r="H37" s="59" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="F38" s="80"/>
       <c r="G38" s="80" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H38" s="63" t="s">
         <v>23</v>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="F39" s="75"/>
       <c r="G39" s="75" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H39" s="58" t="s">
         <v>26</v>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F40" s="76"/>
       <c r="G40" s="76" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H40" s="64" t="s">
         <v>26</v>
